--- a/medicine/Sexualité et sexologie/Shaqāʾiq_al-utrunj_fī_raqāʾiq_al-ghunj/Shaqāʾiq_al-utrunj_fī_raqāʾiq_al-ghunj.xlsx
+++ b/medicine/Sexualité et sexologie/Shaqāʾiq_al-utrunj_fī_raqāʾiq_al-ghunj/Shaqāʾiq_al-utrunj_fī_raqāʾiq_al-ghunj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Shaq%C4%81%CA%BEiq_al-utrunj_f%C4%AB_raq%C4%81%CA%BEiq_al-ghunj</t>
+          <t>Shaqāʾiq_al-utrunj_fī_raqāʾiq_al-ghunj</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shaqā'iq al-utrunj fî al-raqā'iq ghunj (en arabe : شقائق الأترنج في رقائق الغنج) est un manuscrit qui aurait été écrit par l'écrivain islamique Al-Suyuti à la fin du quatorzième siècle[1]. Le livre est l'un des nombreux livres traitant de sexe, écrits par l'auteur, tels que Nawāḍir al-ayk fī maʻrifat al-nayk et Al-Wishāḥ fī fawāʼid al-nikāḥ[2].
-Le livre a été publié pour la première fois en 1988 par l'éditeur syrien Dār al-Ma'rifah[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shaqā'iq al-utrunj fî al-raqā'iq ghunj (en arabe : شقائق الأترنج في رقائق الغنج) est un manuscrit qui aurait été écrit par l'écrivain islamique Al-Suyuti à la fin du quatorzième siècle. Le livre est l'un des nombreux livres traitant de sexe, écrits par l'auteur, tels que Nawāḍir al-ayk fī maʻrifat al-nayk et Al-Wishāḥ fī fawāʼid al-nikāḥ.
+Le livre a été publié pour la première fois en 1988 par l'éditeur syrien Dār al-Ma'rifah.
 </t>
         </is>
       </c>
